--- a/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
+++ b/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my-earnmi\earnmi\vnpy\earnmi_demo\strategy_demo\moment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my-earnmi\earnmi\vnpy\earnmi_demo\strategy_demo\holdbars\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,14 @@
   </si>
   <si>
     <t>46.11(25.12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97.04%(max=611.58%,min=-46.65%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78.58%(max=570.93%,min=-51.00%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,12 +425,13 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="49.125" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
     <col min="6" max="7" width="16.25" customWidth="1"/>
@@ -462,8 +471,8 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.97040000000000004</v>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D2">
         <v>1.1200000000000001</v>
@@ -481,15 +490,15 @@
         <v>1076.19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.78580000000000005</v>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1.05</v>

--- a/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
+++ b/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,38 @@
   </si>
   <si>
     <t>macd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.76(26.38)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46.11(25.12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97.04%(max=611.58%,min=-46.65%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78.58%(max=570.93%,min=-51.00%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97.31%(max=611.25%,min=-46.97%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186.36(110.48)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,23 +104,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.76(26.38)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46.11(25.12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97.04%(max=611.58%,min=-46.65%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78.58%(max=570.93%,min=-51.00%)</t>
+    <t>k,d,j = indicator.kdj(fast_period=9,slow_period=3)
+金叉：k[-1] &gt;= d[-1] and k[-2] &lt;= d[-2] : 买入
+死叉：k[-1] &lt;= d[-1] and k[-2] &gt;= d[-2]:卖出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -461,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -472,13 +490,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1.1200000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2">
         <v>0.55020000000000002</v>
@@ -495,16 +513,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>1.05</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2">
         <v>0.45329999999999998</v>
@@ -514,6 +532,32 @@
       </c>
       <c r="H3" s="3">
         <v>1186.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.30659999999999998</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-0.15010000000000001</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1102.47</v>
       </c>
     </row>
   </sheetData>

--- a/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
+++ b/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>满足aroon_up大于50且aroon_up&gt;arron_down为买入，否则为卖出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>macd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,6 +97,10 @@
     <t>dif, dea, macd_bar = indicator.macd(fast_period=12, slow_period=26, signal_period=9, array=True);
 金叉：macd_bar[-1] &gt;= 0 and macd_bar[-2]&lt;=0 : 买入
 死叉：macd_bar[-1] &lt;= 0 and macd_bar[-2] &gt;=0:卖出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足aroon_up大于50且aroon_up&gt;arron_down为持有，否则为卖出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -443,7 +443,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -479,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -487,16 +487,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1.1200000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
         <v>0.55020000000000002</v>
@@ -510,19 +510,19 @@
     </row>
     <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1.05</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2">
         <v>0.45329999999999998</v>
@@ -536,19 +536,19 @@
     </row>
     <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>1.1100000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>0.30659999999999998</v>

--- a/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
+++ b/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
@@ -74,19 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>97.04%(max=611.58%,min=-46.65%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78.58%(max=570.93%,min=-51.00%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kdj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97.31%(max=611.25%,min=-46.97%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,6 +95,18 @@
     <t>k,d,j = indicator.kdj(fast_period=9,slow_period=3)
 金叉：k[-1] &gt;= d[-1] and k[-2] &lt;= d[-2] : 买入
 死叉：k[-1] &lt;= d[-1] and k[-2] &gt;= d[-2]:卖出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1707.29%(max=7114.82%,min=306.06%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>339.63%(max=1120.23%,min=4.79%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>232.11%(max=793.69%,min=-20.53%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,13 +487,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>1.1200000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -513,13 +513,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>1.05</v>
+        <v>1.87</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -536,19 +536,19 @@
     </row>
     <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>1.1100000000000001</v>
+        <v>11.03</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2">
         <v>0.30659999999999998</v>

--- a/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
+++ b/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>holdbar数（盈利数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收益标准差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,19 +62,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50.76(26.38)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46.11(25.12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kdj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>186.36(110.48)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,6 +91,30 @@
   </si>
   <si>
     <t>232.11%(max=793.69%,min=-20.53%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holdbar数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holdbar盈利数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利总天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利holdbar平均盈利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利holdbar平均天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,8 +122,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -153,13 +162,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -440,23 +450,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="49.125" customWidth="1"/>
     <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3"/>
+    <col min="4" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="8" width="19.25" customWidth="1"/>
+    <col min="9" max="10" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="9" style="3"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,97 +478,163 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D2">
         <v>1.57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>50.76</v>
+      </c>
+      <c r="F2">
+        <v>26.38</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="H2">
+        <v>561.14</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.55020000000000002</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-0.16020000000000001</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1076.19</v>
+      </c>
+      <c r="L2">
+        <f>F2/E2</f>
+        <v>0.51970055161544526</v>
+      </c>
+      <c r="M2">
+        <f>H2/F2</f>
+        <v>21.271417740712661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.55020000000000002</v>
-      </c>
-      <c r="G2" s="2">
-        <v>-0.16020000000000001</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1076.19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D3">
         <v>1.87</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3">
+        <v>46.11</v>
+      </c>
+      <c r="F3">
+        <v>25.12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="H3">
+        <v>580.72</v>
+      </c>
+      <c r="I3" s="2">
         <v>0.45329999999999998</v>
       </c>
-      <c r="G3" s="2">
+      <c r="J3" s="2">
         <v>-0.13159999999999999</v>
       </c>
-      <c r="H3" s="3">
+      <c r="K3" s="3">
         <v>1186.68</v>
       </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L4" si="0">F3/E3</f>
+        <v>0.54478421166775104</v>
+      </c>
+      <c r="M3">
+        <f>H3/F3</f>
+        <v>23.11783439490446</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>11.03</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4">
+        <v>186.36</v>
+      </c>
+      <c r="F4">
+        <v>110.48</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>658.75</v>
+      </c>
+      <c r="I4" s="2">
         <v>0.30659999999999998</v>
       </c>
-      <c r="G4" s="2">
+      <c r="J4" s="2">
         <v>-0.15010000000000001</v>
       </c>
-      <c r="H4" s="3">
+      <c r="K4" s="3">
         <v>1102.47</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.59283107963082204</v>
+      </c>
+      <c r="M4">
+        <f>H4/F4</f>
+        <v>5.9626176683562635</v>
       </c>
     </row>
   </sheetData>

--- a/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
+++ b/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,44 @@
   </si>
   <si>
     <t>盈利holdbar平均天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12102.14%(max=92448.41%,min=1132.25%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有说明，则：
+买入价格为当天的开盘价；
+卖出价格为当天的收盘价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.36%(max=505.40%,min=-62.74%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135.25%(max=572.30%,min=-38.75%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.68%(max=374.80%,min=-6.29%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -467,174 +505,342 @@
     <col min="13" max="13" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>1.57</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>50.76</v>
       </c>
-      <c r="F2">
+      <c r="F4">
         <v>26.38</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G4" s="2">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="H2">
+      <c r="H4">
         <v>561.14</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I4" s="2">
         <v>0.55020000000000002</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J4" s="2">
         <v>-0.16020000000000001</v>
       </c>
-      <c r="K2" s="3">
-        <v>1076.19</v>
-      </c>
-      <c r="L2">
-        <f>F2/E2</f>
+      <c r="K4" s="3">
+        <v>785.4</v>
+      </c>
+      <c r="L4">
+        <f>F4/E4</f>
         <v>0.51970055161544526</v>
       </c>
-      <c r="M2">
-        <f>H2/F2</f>
+      <c r="M4">
+        <f>H4/F4</f>
         <v>21.271417740712661</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>1.87</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>46.11</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>25.12</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G5" s="2">
         <v>9.5500000000000002E-2</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <v>580.72</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I5" s="2">
         <v>0.45329999999999998</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J5" s="2">
         <v>-0.13159999999999999</v>
       </c>
-      <c r="K3" s="3">
-        <v>1186.68</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L4" si="0">F3/E3</f>
+      <c r="K5" s="3">
+        <v>848.03</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L7" si="0">F5/E5</f>
         <v>0.54478421166775104</v>
       </c>
-      <c r="M3">
-        <f>H3/F3</f>
+      <c r="M5">
+        <f>H5/F5</f>
         <v>23.11783439490446</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>11.03</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>186.36</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>110.48</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G6" s="2">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H6" s="4">
         <v>658.75</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I6" s="2">
         <v>0.30659999999999998</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J6" s="2">
         <v>-0.15010000000000001</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K6" s="3">
         <v>1102.47</v>
       </c>
-      <c r="L4">
+      <c r="L6">
         <f t="shared" si="0"/>
         <v>0.59283107963082204</v>
       </c>
-      <c r="M4">
-        <f>H4/F4</f>
+      <c r="M6">
+        <f>H6/F6</f>
         <v>5.9626176683562635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>119.87</v>
+      </c>
+      <c r="E7">
+        <v>212.67</v>
+      </c>
+      <c r="F7">
+        <v>153.32</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.61E-2</v>
+      </c>
+      <c r="H7">
+        <v>841.99</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.31559999999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-6.8199999999999997E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1011.47</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.72092913904170786</v>
+      </c>
+      <c r="M7">
+        <f>H7/F7</f>
+        <v>5.4917166710148715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>0.93</v>
+      </c>
+      <c r="E12">
+        <v>50.76</v>
+      </c>
+      <c r="F12">
+        <v>22.64</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="H12">
+        <v>508.78399999999999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="J12" s="2">
+        <v>-0.16830000000000001</v>
+      </c>
+      <c r="K12" s="3">
+        <v>785.4</v>
+      </c>
+      <c r="L12">
+        <f>F12/E12</f>
+        <v>0.4460204885736801</v>
+      </c>
+      <c r="M12">
+        <f>H12/F12</f>
+        <v>22.472791519434629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>0.97</v>
+      </c>
+      <c r="E13">
+        <v>46.11</v>
+      </c>
+      <c r="F13">
+        <v>20.07</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="H13">
+        <v>523.51</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.42870000000000003</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-0.14649999999999999</v>
+      </c>
+      <c r="K13" s="3">
+        <v>848.03</v>
+      </c>
+      <c r="L13">
+        <f>F13/E13</f>
+        <v>0.43526350032530908</v>
+      </c>
+      <c r="M13">
+        <f>H13/F13</f>
+        <v>26.084205281514699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>0.72</v>
+      </c>
+      <c r="E14">
+        <v>186.36</v>
+      </c>
+      <c r="F14">
+        <v>83.13</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H14">
+        <v>542.76</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-0.13519999999999999</v>
+      </c>
+      <c r="K14" s="3">
+        <v>942.18</v>
+      </c>
+      <c r="L14">
+        <f>F14/E14</f>
+        <v>0.44607211848036055</v>
+      </c>
+      <c r="M14">
+        <f>H14/F14</f>
+        <v>6.5290508841573445</v>
       </c>
     </row>
   </sheetData>

--- a/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
+++ b/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
@@ -130,29 +130,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>macd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>如果没有说明，则：
 买入价格为当天的开盘价；
-卖出价格为当天的收盘价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99.36%(max=505.40%,min=-62.74%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>macd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135.25%(max=572.30%,min=-38.75%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kdj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100.68%(max=374.80%,min=-6.29%)</t>
+卖出价格为当天的收盘价
+行业的成分股要超过10个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95.10%(max=277.35%,min=1.56%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141.90%(max=572.30%,min=-23.38%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107.76%(max=505.40%,min=-18.90%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,13 +491,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="49.125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="31.125" customWidth="1"/>
     <col min="4" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="8" width="19.25" customWidth="1"/>
@@ -505,12 +506,12 @@
     <col min="13" max="13" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -728,119 +729,119 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="E12">
-        <v>50.76</v>
+        <v>50.42</v>
       </c>
       <c r="F12">
-        <v>22.64</v>
+        <v>22.61</v>
       </c>
       <c r="G12" s="2">
-        <v>9.0499999999999997E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H12">
-        <v>508.78399999999999</v>
+        <v>515.24</v>
       </c>
       <c r="I12" s="2">
-        <v>0.52610000000000001</v>
+        <v>0.53610000000000002</v>
       </c>
       <c r="J12" s="2">
         <v>-0.16830000000000001</v>
       </c>
       <c r="K12" s="3">
-        <v>785.4</v>
+        <v>790.4</v>
       </c>
       <c r="L12">
         <f>F12/E12</f>
-        <v>0.4460204885736801</v>
+        <v>0.44843316144387146</v>
       </c>
       <c r="M12">
         <f>H12/F12</f>
-        <v>22.472791519434629</v>
+        <v>22.788146837682444</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="E13">
-        <v>46.11</v>
+        <v>45.9</v>
       </c>
       <c r="F13">
-        <v>20.07</v>
+        <v>20.12</v>
       </c>
       <c r="G13" s="2">
-        <v>0.10050000000000001</v>
+        <v>0.1018</v>
       </c>
       <c r="H13">
-        <v>523.51</v>
+        <v>528.27099999999996</v>
       </c>
       <c r="I13" s="2">
-        <v>0.42870000000000003</v>
+        <v>0.437</v>
       </c>
       <c r="J13" s="2">
         <v>-0.14649999999999999</v>
       </c>
       <c r="K13" s="3">
-        <v>848.03</v>
+        <v>850.03</v>
       </c>
       <c r="L13">
         <f>F13/E13</f>
-        <v>0.43526350032530908</v>
+        <v>0.43834422657952071</v>
       </c>
       <c r="M13">
         <f>H13/F13</f>
-        <v>26.084205281514699</v>
+        <v>26.25601391650099</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="E14">
-        <v>186.36</v>
+        <v>187</v>
       </c>
       <c r="F14">
-        <v>83.13</v>
+        <v>83.74</v>
       </c>
       <c r="G14" s="2">
-        <v>3.7999999999999999E-2</v>
+        <v>3.73E-2</v>
       </c>
       <c r="H14">
-        <v>542.76</v>
+        <v>544.88</v>
       </c>
       <c r="I14" s="2">
-        <v>0.25650000000000001</v>
+        <v>0.251</v>
       </c>
       <c r="J14" s="2">
-        <v>-0.13519999999999999</v>
+        <v>-0.13539999999999999</v>
       </c>
       <c r="K14" s="3">
         <v>942.18</v>
       </c>
       <c r="L14">
         <f>F14/E14</f>
-        <v>0.44607211848036055</v>
+        <v>0.44780748663101599</v>
       </c>
       <c r="M14">
         <f>H14/F14</f>
-        <v>6.5290508841573445</v>
+        <v>6.5068067828994511</v>
       </c>
     </row>
   </sheetData>

--- a/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
+++ b/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="统计分析" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +155,46 @@
   </si>
   <si>
     <t>107.76%(max=505.40%,min=-18.90%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k&gt;d值情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离kdj金叉相差0天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离kdj金叉相差1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离kdj金叉相差2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计macd金叉时，kdj的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均几天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,7 +639,7 @@
         <v>21.271417740712661</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="114" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -641,7 +682,7 @@
         <v>23.11783439490446</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -842,6 +883,63 @@
       <c r="M14">
         <f>H14/F14</f>
         <v>6.5068067828994511</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
+++ b/vnpy/earnmi_demo/strategy_demo/holdbars/holdbar分析.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="统计分析" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,43 +159,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k&gt;d值情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离kdj金叉相差0天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离kdj金叉相差1天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离kdj金叉相差2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计macd金叉时，kdj的情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均几天</t>
+    <t>mac金叉出现时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kdj的k值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kdj的d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADOSC值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离kdj金叉距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,52 +883,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
     <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
         <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -947,4 +928,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>